--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_2_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_2_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1962590516004463</v>
+        <v>0.4470113295574223</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1962590516004463</v>
+        <v>0.4470113295574223</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.958254608821798</v>
+        <v>4.020600055708248</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.380509001923464, 17.29701821956706]</t>
+          <t>[-3.7736326330505836, 11.814832744467079]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1820091609964947</v>
+        <v>0.3043733196825134</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1820091609964947</v>
+        <v>0.3043733196825134</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5408948312486928</v>
+        <v>-1.509473947670771</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.641605898755736, 2.5598162362583503]</t>
+          <t>[-4.622763964741737, 1.603816069400195]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.7269696058478909</v>
+        <v>0.3340201337091788</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7269696058478909</v>
+        <v>0.3340201337091788</v>
       </c>
       <c r="T2" t="n">
-        <v>16.14073162852479</v>
+        <v>13.02625035411111</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.640634505321593, 21.640828751727987]</t>
+          <t>[8.671425489335782, 17.381075218886437]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.237056152600616e-07</v>
+        <v>2.870235424889955e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.237056152600616e-07</v>
+        <v>2.870235424889955e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.942102102102108</v>
+        <v>5.378978978978992</v>
       </c>
       <c r="Y2" t="n">
-        <v>-9.191111111111148</v>
+        <v>-5.715165165165182</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.07531531531536</v>
+        <v>16.47312312312317</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.180498600579061</v>
+        <v>0.02676722362719075</v>
       </c>
       <c r="I3" t="n">
-        <v>0.180498600579061</v>
+        <v>0.02676722362719075</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.492743473969692</v>
+        <v>7.894471874560932</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.0369683879082645, 16.02245533584765]</t>
+          <t>[0.11625163042183217, 15.672692118700033]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1767904649040726</v>
+        <v>0.04681114409023146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1767904649040726</v>
+        <v>0.04681114409023146</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-0.3899474364816156</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.031553335237352, 2.19502669890458]</t>
+          <t>[-1.8050792624229643, 1.0251843894597332]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5554476745345092</v>
+        <v>0.581644892766263</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5554476745345092</v>
+        <v>0.581644892766263</v>
       </c>
       <c r="T3" t="n">
-        <v>15.10124068221484</v>
+        <v>14.82220773622411</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.194250468546365, 20.008230895883322]</t>
+          <t>[10.701849646133958, 18.942565826314258]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.583889857048604e-07</v>
+        <v>4.414804966046404e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.583889857048604e-07</v>
+        <v>4.414804966046404e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>3.297057057057071</v>
+        <v>1.38956956956957</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.881321321321352</v>
+        <v>-3.653223223223239</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.47543543543549</v>
+        <v>6.432362362362379</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6484286026244266</v>
+        <v>0.1154892440156805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6484286026244266</v>
+        <v>0.1154892440156805</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.049700280773851</v>
+        <v>6.960801697671693</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.3214664343420255, 11.420866995889728]</t>
+          <t>[-2.187157947173315, 16.1087613425167]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4669020679708979</v>
+        <v>0.132385832567059</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4669020679708979</v>
+        <v>0.132385832567059</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.396263401595464</v>
+        <v>-0.4528421843012316</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.522132368230353, 1.7296055650394253]</t>
+          <t>[-2.7107636310254275, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.373090576688633</v>
+        <v>0.6881681480887449</v>
       </c>
       <c r="S4" t="n">
-        <v>0.373090576688633</v>
+        <v>0.6881681480887449</v>
       </c>
       <c r="T4" t="n">
-        <v>12.38384453060398</v>
+        <v>13.66039176891731</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.8450886379724, 16.922600423235554]</t>
+          <t>[8.878048389025754, 18.44273514880887]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.740236705405351e-06</v>
+        <v>7.250445193118793e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.740236705405351e-06</v>
+        <v>7.250445193118793e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>5.013333333333353</v>
+        <v>1.613693693693701</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.210210210210233</v>
+        <v>-6.432362362362378</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.23687687687694</v>
+        <v>9.65974974974978</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8035436680099139</v>
+        <v>0.2990939157266581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8035436680099139</v>
+        <v>0.2990939157266581</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.997890058409385</v>
+        <v>4.97717601130276</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.406337618292145, 9.402117735110915]</t>
+          <t>[-4.08562640109203, 14.03997842369755]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5894902797738837</v>
+        <v>0.2745530392549036</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5894902797738837</v>
+        <v>0.2745530392549036</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.308210754648002</v>
+        <v>-0.754736973835386</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.446658670846814, 1.8302371615508104]</t>
+          <t>[-3.874316465688313, 2.364842518017541]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.4056011599423708</v>
+        <v>0.628423159812185</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4056011599423708</v>
+        <v>0.628423159812185</v>
       </c>
       <c r="T5" t="n">
-        <v>11.64129027099194</v>
+        <v>12.93583523324678</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.430924144088328, 15.851656397895555]</t>
+          <t>[8.383607297727576, 17.488063168765986]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.356833292831539e-06</v>
+        <v>8.023576221205531e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.356833292831539e-06</v>
+        <v>8.023576221205531e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>4.697177177177196</v>
+        <v>2.6894894894895</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.571531531531557</v>
+        <v>-8.427067067067085</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.96588588588595</v>
+        <v>13.80604604604608</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7090862179248656</v>
+        <v>0.6465479918247873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7090862179248656</v>
+        <v>0.6465479918247873</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.388513276183942</v>
+        <v>2.998517149645679</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.328203221421278, 10.105229773789162]</t>
+          <t>[-5.40078839376487, 11.397822693056227]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.5361594303200246</v>
+        <v>0.4758419961927123</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5361594303200246</v>
+        <v>0.4758419961927123</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9874475407679633</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.144710900648887, 4.119605982184813]</t>
+          <t>[-3.151026865762735, 3.100711067507043]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5286645796398139</v>
+        <v>0.9871384463768087</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5286645796398139</v>
+        <v>0.9871384463768087</v>
       </c>
       <c r="T6" t="n">
-        <v>10.41734827978062</v>
+        <v>11.71891004487266</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.397950978432336, 14.436745581128895]</t>
+          <t>[7.030285552736846, 16.40753453700848]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.40583027927488e-06</v>
+        <v>8.210474013115032e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.40583027927488e-06</v>
+        <v>8.210474013115032e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>19.01453453453461</v>
+        <v>0.0896496496496475</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.76840840840844</v>
+        <v>-11.04931931931935</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.26066066066078</v>
+        <v>11.22861861861865</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09017796293357128</v>
+        <v>0.0908937985689906</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09017796293357128</v>
+        <v>0.0908937985689906</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.501313571172865</v>
+        <v>8.449095830155191</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3440034708137976, 14.346630613159528]</t>
+          <t>[-1.6521659939127353, 18.550357654223117]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1020489510453444</v>
+        <v>0.09897554899884708</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1020489510453444</v>
+        <v>0.09897554899884708</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.0755266780473107, 3.2202110883643122]</t>
+          <t>[-2.213895123250465, 3.4340532309510063]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6653876346819922</v>
+        <v>0.6655565011908569</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6653876346819922</v>
+        <v>0.6655565011908569</v>
       </c>
       <c r="T7" t="n">
-        <v>13.57784007996773</v>
+        <v>18.44724482146871</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.446322848078356, 17.7093573118571]</t>
+          <t>[13.08131451878574, 23.81317512415169]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.748397792158187e-08</v>
+        <v>1.320217113409683e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.748397792158187e-08</v>
+        <v>1.320217113409683e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>20.50498498498506</v>
+        <v>20.21599599599605</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.99771771771776</v>
+        <v>10.15282282282285</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.01225225225237</v>
+        <v>30.27916916916925</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3795201040013186</v>
+        <v>0.4986978827330948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3795201040013186</v>
+        <v>0.4986978827330948</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.875275038245906</v>
+        <v>4.719686697204632</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.480204405679713, 14.230754482171525]</t>
+          <t>[-6.1012202524352555, 15.54059364684452]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2995163648469297</v>
+        <v>0.3843506368881213</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2995163648469297</v>
+        <v>0.3843506368881213</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8868159442565782</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.245342497160273, 4.018974385673429]</t>
+          <t>[-2.1698687997767347, 4.094448083056967]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5713390676059453</v>
+        <v>0.5391741605420788</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5713390676059453</v>
+        <v>0.5391741605420788</v>
       </c>
       <c r="T8" t="n">
-        <v>13.91050375176199</v>
+        <v>14.40472091224732</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.033359719216069, 18.787647784307918]</t>
+          <t>[8.850999709858364, 19.958442114636284]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.464424229830513e-07</v>
+        <v>4.348454484714992e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>7.464424229830513e-07</v>
+        <v>4.348454484714992e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>19.37585585585593</v>
+        <v>18.96090090090095</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.129729729729762</v>
+        <v>7.79951951951954</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.6219819819821</v>
+        <v>30.12228228228236</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2857532728711287</v>
+        <v>0.3805625732814076</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2857532728711287</v>
+        <v>0.3805625732814076</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.912530664373397</v>
+        <v>4.285854750031616</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.7550031324948403, 12.580064461241635]</t>
+          <t>[-3.833057587990849, 12.404767088054081]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2034959327011152</v>
+        <v>0.2933565969620857</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2034959327011152</v>
+        <v>0.2933565969620857</v>
       </c>
       <c r="P9" t="n">
-        <v>1.767342413731195</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.2767633807381937, 4.811448208200584]</t>
+          <t>[-0.9371317425122694, 5.302027241193585]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.248421348943431</v>
+        <v>0.1656904183486163</v>
       </c>
       <c r="S9" t="n">
-        <v>0.248421348943431</v>
+        <v>0.1656904183486163</v>
       </c>
       <c r="T9" t="n">
-        <v>10.40570016888022</v>
+        <v>12.46888321718677</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.139178692760423, 14.67222164500001]</t>
+          <t>[8.127723861511868, 16.81004257286168]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.231433331239096e-05</v>
+        <v>6.504317529021364e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.231433331239096e-05</v>
+        <v>6.504317529021364e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.21429429429435</v>
+        <v>14.61289289289293</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.284324324324343</v>
+        <v>3.496336336336345</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.14426426426436</v>
+        <v>25.72944944944951</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1508146173588528</v>
+        <v>0.09488640245938884</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1508146173588528</v>
+        <v>0.09488640245938884</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.978692961203102</v>
+        <v>7.032347700343227</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.523959144650803, 14.481345067057006]</t>
+          <t>[-1.6745654703651809, 15.739260871051634]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1635935278507652</v>
+        <v>0.1107758147897437</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1635935278507652</v>
+        <v>0.1107758147897437</v>
       </c>
       <c r="P10" t="n">
-        <v>2.35855304323558</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.7232895999255788, 5.440395686396739]</t>
+          <t>[-0.779894872963232, 5.471843060306547]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.130221556615941</v>
+        <v>0.1376293711049021</v>
       </c>
       <c r="S10" t="n">
-        <v>0.130221556615941</v>
+        <v>0.1376293711049021</v>
       </c>
       <c r="T10" t="n">
-        <v>14.47176039690227</v>
+        <v>13.81258343404819</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.15065201672276, 18.79286877708177]</t>
+          <t>[9.273475236057546, 18.351691632038833]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.43307851643948e-08</v>
+        <v>2.008865744862476e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.43307851643948e-08</v>
+        <v>2.008865744862476e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.09153153153159</v>
+        <v>14.03017017017021</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.026066066066077</v>
+        <v>2.891201201201207</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.1569969969971</v>
+        <v>25.1691391391392</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08735861227303887</v>
+        <v>0.04302214786877556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08735861227303887</v>
+        <v>0.04302214786877556</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.769596792315741</v>
+        <v>8.570316367461999</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.1652673590202127, 14.704460943651695]</t>
+          <t>[0.10631475395956258, 17.034317980964435]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.09261172453072164</v>
+        <v>0.04730783663183113</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09261172453072164</v>
+        <v>0.04730783663183113</v>
       </c>
       <c r="P11" t="n">
-        <v>2.006342455445734</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.04402632347373103, 3.9686585874177362]</t>
+          <t>[0.4842895582110387, 3.855448041342429]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04528063374802938</v>
+        <v>0.01279693113849345</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04528063374802938</v>
+        <v>0.01279693113849345</v>
       </c>
       <c r="T11" t="n">
-        <v>15.37298856291519</v>
+        <v>13.50191086485672</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[11.162952995008158, 19.583024130822228]</t>
+          <t>[8.827509844445377, 18.17631188526807]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.04582981058843e-09</v>
+        <v>5.818351265229893e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>3.04582981058843e-09</v>
+        <v>5.818351265229893e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>15.79859859859873</v>
+        <v>15.08324324324335</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.549829829829902</v>
+        <v>8.902342342342404</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.04736736736756</v>
+        <v>21.26414414414429</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1946264109898437</v>
+        <v>0.128850699561418</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1946264109898437</v>
+        <v>0.128850699561418</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.83416184443149</v>
+        <v>5.008908744717748</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.11819478086648, 13.78651846972946]</t>
+          <t>[-1.5778837488365554, 11.595701238272051]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.146473335052276</v>
+        <v>0.1326169420755734</v>
       </c>
       <c r="O12" t="n">
-        <v>0.146473335052276</v>
+        <v>0.1326169420755734</v>
       </c>
       <c r="P12" t="n">
-        <v>3.113290017070967</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.30818426431611634, 5.918395769825817]</t>
+          <t>[-0.3962369112635784, 5.6919746776752005]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.03039913733459065</v>
+        <v>0.08659733381053192</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03039913733459065</v>
+        <v>0.08659733381053192</v>
       </c>
       <c r="T12" t="n">
-        <v>11.71264100973649</v>
+        <v>9.660434960190202</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.131184854919617, 16.294097164553364]</t>
+          <t>[6.176361223433419, 13.144508696946984]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.590158949519974e-06</v>
+        <v>1.286121479759927e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>5.590158949519974e-06</v>
+        <v>1.286121479759927e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>11.70954954954964</v>
+        <v>13.33045045045055</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.347527527527539</v>
+        <v>2.167927927927945</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.07157157157175</v>
+        <v>24.49297297297315</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2962849092768547</v>
+        <v>0.01740659452565607</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2962849092768547</v>
+        <v>0.01740659452565607</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.771418244251363</v>
+        <v>6.046364209837034</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.789276520403728, 12.332113008906454]</t>
+          <t>[1.2206420598428203, 10.872086359831247]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2102370688738666</v>
+        <v>0.01521744712250794</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2102370688738666</v>
+        <v>0.01521744712250794</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.081842643161159</v>
+        <v>3.138447916198812</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-6.195132660232125, 0.03144737390980801]</t>
+          <t>[2.0315003545735797, 4.245395477824045]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05226029237354468</v>
+        <v>8.384736134292581e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05226029237354468</v>
+        <v>8.384736134292581e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>11.0310821430373</v>
+        <v>9.699193592991678</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.666557283136642, 15.395607002937963]</t>
+          <t>[6.754466528524503, 12.643920657458853]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.801067890860324e-06</v>
+        <v>3.563261863348544e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>6.801067890860324e-06</v>
+        <v>3.563261863348544e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>11.38428428428438</v>
+        <v>11.53153153153161</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.1161661661661668</v>
+        <v>7.472432432432485</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.88473473473492</v>
+        <v>15.59063063063074</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1085769011160269</v>
+        <v>0.138295388123766</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1085769011160269</v>
+        <v>0.138295388123766</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.888068511899956</v>
+        <v>6.953013686484247</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8578425962432554, 17.633979620043167]</t>
+          <t>[-2.1896255474683075, 16.0956529204368]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1100486766150754</v>
+        <v>0.1325888014917891</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1100486766150754</v>
+        <v>0.1325888014917891</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.60384255973208</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.49071148465243, 0.2830263651882694]</t>
+          <t>[-4.71710608647116, -1.0943686120613108]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.07593602418004486</v>
+        <v>0.002308999827691283</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07593602418004486</v>
+        <v>0.002308999827691283</v>
       </c>
       <c r="T14" t="n">
-        <v>13.27927105548128</v>
+        <v>13.93222377344189</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.045986853813107, 18.512555257149458]</t>
+          <t>[8.984964392728845, 18.879483154154943]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.357143642610197e-06</v>
+        <v>9.555736999455888e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>6.357143642610197e-06</v>
+        <v>9.555736999455888e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>9.618558558558634</v>
+        <v>10.65513513513521</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.045495495495505</v>
+        <v>4.012972972973005</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.28261261261277</v>
+        <v>17.29729729729742</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.561744358402115</v>
+        <v>0.277465866839105</v>
       </c>
       <c r="I15" t="n">
-        <v>0.561744358402115</v>
+        <v>0.277465866839105</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.375057035635292</v>
+        <v>5.247893550101287</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-5.124521842989886, 11.87463591426047]</t>
+          <t>[-3.5574885048459777, 14.053275605048551]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.428045466751769</v>
+        <v>0.2362731161746789</v>
       </c>
       <c r="O15" t="n">
-        <v>0.428045466751769</v>
+        <v>0.2362731161746789</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.503210963220696</v>
+        <v>-2.742211004935235</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.635369404637546, 0.6289474781961539]</t>
+          <t>[-5.7674483750587395, 0.2830263651882694]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1144647644548256</v>
+        <v>0.07453979110122844</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1144647644548256</v>
+        <v>0.07453979110122844</v>
       </c>
       <c r="T15" t="n">
-        <v>11.48235932358057</v>
+        <v>11.68798288056057</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.0186288645964945, 15.946089782564638]</t>
+          <t>[7.034655362762325, 16.34131039835881]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.023296382855591e-06</v>
+        <v>7.558473579472036e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.023296382855591e-06</v>
+        <v>7.558473579472036e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>9.246826826826904</v>
+        <v>10.05549549549557</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.323323323323338</v>
+        <v>-1.037837837837845</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.81697697697714</v>
+        <v>21.14882882882898</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4411019434091086</v>
+        <v>0.2198883752795621</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4411019434091086</v>
+        <v>0.2198883752795621</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.915486884621258</v>
+        <v>7.277476022893282</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-5.489302497349074, 15.32027626659159]</t>
+          <t>[-3.7552227564215706, 18.310174802208135]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.346426670147602</v>
+        <v>0.1906918590712696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.346426670147602</v>
+        <v>0.1906918590712696</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.647948354201469, 0.5912106295043849]</t>
+          <t>[-5.792606274186586, 0.40881586082750054]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1095747113362138</v>
+        <v>0.08718784131148505</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1095747113362138</v>
+        <v>0.08718784131148505</v>
       </c>
       <c r="T16" t="n">
-        <v>13.27380621813349</v>
+        <v>14.81638414900163</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.832241491731661, 18.71537094453531]</t>
+          <t>[8.903119052452407, 20.72964924555085]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.228005555087286e-05</v>
+        <v>7.876377505544596e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.228005555087286e-05</v>
+        <v>7.876377505544596e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>9.339759759759835</v>
+        <v>9.870990990991062</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.18392392392394</v>
+        <v>-1.499099099099109</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.86344344344361</v>
+        <v>21.24108108108123</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0349613156597588</v>
+        <v>0.2208420757270989</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0349613156597588</v>
+        <v>0.2208420757270989</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>7.015539635412628</v>
+        <v>6.026749303353498</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.18797153103899156, 14.219050801864247]</t>
+          <t>[-2.847541451780291, 14.901040058487286]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.05601966708904493</v>
+        <v>0.1781585293405494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05601966708904493</v>
+        <v>0.1781585293405494</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.490632013656773</v>
+        <v>-2.151000375430849</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-3.9497901630718517, -1.0314738642416938]</t>
+          <t>[-5.213974594246122, 0.9119738433844242]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.001273444019067815</v>
+        <v>0.1641203001136815</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001273444019067815</v>
+        <v>0.1641203001136815</v>
       </c>
       <c r="T17" t="n">
-        <v>11.44896163724688</v>
+        <v>15.3909199598646</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.722234913557685, 15.175688360936078]</t>
+          <t>[10.579836727033168, 20.202003192696033]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.643667357775769e-07</v>
+        <v>6.847806766074882e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.643667357775769e-07</v>
+        <v>6.847806766074882e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>9.200360360360435</v>
+        <v>7.887567567567622</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.810250250250282</v>
+        <v>-3.344144144144167</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.59047047047059</v>
+        <v>19.11927927927941</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_2_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_2_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4470113295574223</v>
+        <v>0.2038125309449291</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4470113295574223</v>
+        <v>0.2038125309449291</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.020600055708248</v>
+        <v>7.193551255995525</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.7736326330505836, 11.814832744467079]</t>
+          <t>[-3.4564013837640326, 17.843503895755084]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3043733196825134</v>
+        <v>0.1804685900153813</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3043733196825134</v>
+        <v>0.1804685900153813</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.509473947670771</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.622763964741737, 1.603816069400195]</t>
+          <t>[-4.14476388131266, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3340201337091788</v>
+        <v>0.480540818169791</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3340201337091788</v>
+        <v>0.480540818169791</v>
       </c>
       <c r="T2" t="n">
-        <v>13.02625035411111</v>
+        <v>14.89681435348103</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.671425489335782, 17.381075218886437]</t>
+          <t>[9.298048442160315, 20.49558026480174]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.870235424889955e-07</v>
+        <v>2.760123923417623e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.870235424889955e-07</v>
+        <v>2.760123923417623e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.378978978978992</v>
+        <v>3.835995995996004</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.715165165165182</v>
+        <v>-7.02522522522524</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.47312312312317</v>
+        <v>14.69721721721725</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02676722362719075</v>
+        <v>0.6218790260480798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02676722362719075</v>
+        <v>0.6218790260480798</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.894471874560932</v>
+        <v>3.058873765964865</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.11625163042183217, 15.672692118700033]</t>
+          <t>[-5.15094350900112, 11.26869104093085]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04681114409023146</v>
+        <v>0.4569022045456386</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04681114409023146</v>
+        <v>0.4569022045456386</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3899474364816156</v>
+        <v>-1.974895081535926</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.8050792624229643, 1.0251843894597332]</t>
+          <t>[-5.107053522952777, 1.1572633598809254]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.581644892766263</v>
+        <v>0.2106348920073917</v>
       </c>
       <c r="S3" t="n">
-        <v>0.581644892766263</v>
+        <v>0.2106348920073917</v>
       </c>
       <c r="T3" t="n">
-        <v>14.82220773622411</v>
+        <v>13.63198118921385</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.701849646133958, 18.942565826314258]</t>
+          <t>[9.310210249038843, 17.95375212938885]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.414804966046404e-09</v>
+        <v>9.327821093307875e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.414804966046404e-09</v>
+        <v>9.327821093307875e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>1.38956956956957</v>
+        <v>7.002922922922936</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.653223223223239</v>
+        <v>-4.103623623623633</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.432362362362379</v>
+        <v>18.10946946946951</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1154892440156805</v>
+        <v>0.1204375238501854</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1154892440156805</v>
+        <v>0.1204375238501854</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.960801697671693</v>
+        <v>7.682329492228298</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.187157947173315, 16.1087613425167]</t>
+          <t>[-1.4106522380636441, 16.77531122252024]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.132385832567059</v>
+        <v>0.09572291515752562</v>
       </c>
       <c r="O4" t="n">
-        <v>0.132385832567059</v>
+        <v>0.09572291515752562</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4528421843012316</v>
+        <v>-0.006289474781961069</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.7107636310254275, 1.8050792624229643]</t>
+          <t>[-1.515763422452732, 1.50318447288881]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6881681480887449</v>
+        <v>0.993341248318202</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6881681480887449</v>
+        <v>0.993341248318202</v>
       </c>
       <c r="T4" t="n">
-        <v>13.66039176891731</v>
+        <v>12.62904514334198</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.878048389025754, 18.44273514880887]</t>
+          <t>[7.273153083063164, 17.984937203620802]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.250445193118793e-07</v>
+        <v>2.109952394091508e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>7.250445193118793e-07</v>
+        <v>2.109952394091508e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.613693693693701</v>
+        <v>0.0223023023023039</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.432362362362378</v>
+        <v>-5.330250250250257</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.65974974974978</v>
+        <v>5.374854854854865</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2990939157266581</v>
+        <v>0.8730633008050189</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2990939157266581</v>
+        <v>0.8730633008050189</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.97717601130276</v>
+        <v>1.794584858714532</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.08562640109203, 14.03997842369755]</t>
+          <t>[-7.737273196923543, 11.326442914352608]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2745530392549036</v>
+        <v>0.7063229347046416</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2745530392549036</v>
+        <v>0.7063229347046416</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.754736973835386</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.874316465688313, 2.364842518017541]</t>
+          <t>[-2.4906320136567732, 3.786263818740853]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.628423159812185</v>
+        <v>0.6795785544773061</v>
       </c>
       <c r="S5" t="n">
-        <v>0.628423159812185</v>
+        <v>0.6795785544773061</v>
       </c>
       <c r="T5" t="n">
-        <v>12.93583523324678</v>
+        <v>10.91316840787361</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.383607297727576, 17.488063168765986]</t>
+          <t>[6.022066143072276, 15.804270672674942]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.023576221205531e-07</v>
+        <v>4.854600261561259e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>8.023576221205531e-07</v>
+        <v>4.854600261561259e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>2.6894894894895</v>
+        <v>19.9828628628629</v>
       </c>
       <c r="Y5" t="n">
-        <v>-8.427067067067085</v>
+        <v>8.854014014014028</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.80604604604608</v>
+        <v>31.11171171171178</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6465479918247873</v>
+        <v>0.06200077591335873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6465479918247873</v>
+        <v>0.06200077591335873</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.998517149645679</v>
+        <v>7.044613248744895</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.40078839376487, 11.397822693056227]</t>
+          <t>[-0.5556585945378938, 14.644885092027684]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4758419961927123</v>
+        <v>0.06844565374359379</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4758419961927123</v>
+        <v>0.06844565374359379</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.02515789912784605</v>
+        <v>0.7232895999255788</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.151026865762735, 3.100711067507043]</t>
+          <t>[-2.3333951441077323, 3.77997434395889]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9871384463768087</v>
+        <v>0.6359615129041991</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9871384463768087</v>
+        <v>0.6359615129041991</v>
       </c>
       <c r="T6" t="n">
-        <v>11.71891004487266</v>
+        <v>12.23085107043109</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.030285552736846, 16.40753453700848]</t>
+          <t>[8.131904232729859, 16.32979790813232]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.210474013115032e-06</v>
+        <v>3.018642500407509e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>8.210474013115032e-06</v>
+        <v>3.018642500407509e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0896496496496475</v>
+        <v>19.71523523523527</v>
       </c>
       <c r="Y6" t="n">
-        <v>-11.04931931931935</v>
+        <v>8.876316316316332</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.22861861861865</v>
+        <v>30.5541541541542</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0908937985689906</v>
+        <v>0.3419680232942605</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0908937985689906</v>
+        <v>0.3419680232942605</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.449095830155191</v>
+        <v>4.999039181094767</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.6521659939127353, 18.550357654223117]</t>
+          <t>[-3.9886336639577165, 13.986712026147249]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09897554899884708</v>
+        <v>0.268544010778863</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09897554899884708</v>
+        <v>0.268544010778863</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6100790538502707</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, 3.4340532309510063]</t>
+          <t>[-2.1384214258669267, 4.138474406530699]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6655565011908569</v>
+        <v>0.5242793640232137</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6655565011908569</v>
+        <v>0.5242793640232137</v>
       </c>
       <c r="T7" t="n">
-        <v>18.44724482146871</v>
+        <v>12.15305989379765</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[13.08131451878574, 23.81317512415169]</t>
+          <t>[7.453344859970164, 16.852774927625134]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.320217113409683e-08</v>
+        <v>4.583799830371049e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.320217113409683e-08</v>
+        <v>4.583799830371049e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.21599599599605</v>
+        <v>18.73393393393397</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.15282282282285</v>
+        <v>7.605085085085095</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.27916916916925</v>
+        <v>29.86278278278284</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4986978827330948</v>
+        <v>0.3275326044028086</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4986978827330948</v>
+        <v>0.3275326044028086</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.719686697204632</v>
+        <v>5.341490962356174</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.1012202524352555, 15.54059364684452]</t>
+          <t>[-3.234041629218332, 13.91702355393068]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3843506368881213</v>
+        <v>0.2161243366805095</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3843506368881213</v>
+        <v>0.2161243366805095</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.1698687997767347, 4.094448083056967]</t>
+          <t>[-1.7044476659115784, 4.50955341866643]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5391741605420788</v>
+        <v>0.3680883473015861</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5391741605420788</v>
+        <v>0.3680883473015861</v>
       </c>
       <c r="T8" t="n">
-        <v>14.40472091224732</v>
+        <v>14.75367458758945</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.850999709858364, 19.958442114636284]</t>
+          <t>[9.883907072696944, 19.623442102481945]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.348454484714992e-06</v>
+        <v>2.202761630876182e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>4.348454484714992e-06</v>
+        <v>2.202761630876182e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.96090090090095</v>
+        <v>17.30658658658662</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.79951951951954</v>
+        <v>6.289249249249261</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.12228228228236</v>
+        <v>28.32392392392398</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3805625732814076</v>
+        <v>0.4748680895555865</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3805625732814076</v>
+        <v>0.4748680895555865</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.285854750031616</v>
+        <v>3.900205763158237</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.833057587990849, 12.404767088054081]</t>
+          <t>[-4.3655489756665276, 12.165960501983001]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2933565969620857</v>
+        <v>0.3470074254772562</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2933565969620857</v>
+        <v>0.3470074254772562</v>
       </c>
       <c r="P9" t="n">
-        <v>2.182447749340658</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.9371317425122694, 5.302027241193585]</t>
+          <t>[-1.3585265529036938, 4.868053481238238]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1656904183486163</v>
+        <v>0.262292869404338</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1656904183486163</v>
+        <v>0.262292869404338</v>
       </c>
       <c r="T9" t="n">
-        <v>12.46888321718677</v>
+        <v>13.19942851109946</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.127723861511868, 16.81004257286168]</t>
+          <t>[8.790100000351332, 17.608757021847595]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.504317529021364e-07</v>
+        <v>2.825116007798556e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.504317529021364e-07</v>
+        <v>2.825116007798556e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>14.61289289289293</v>
+        <v>16.05765765765769</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.496336336336345</v>
+        <v>5.018018018018026</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.72944944944951</v>
+        <v>27.09729729729735</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09488640245938884</v>
+        <v>0.04192305292106069</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09488640245938884</v>
+        <v>0.04192305292106069</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.032347700343227</v>
+        <v>10.41217338436297</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.6745654703651809, 15.739260871051634]</t>
+          <t>[-0.3171975838854877, 21.141544352611426]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1107758147897437</v>
+        <v>0.05686514671084719</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1107758147897437</v>
+        <v>0.05686514671084719</v>
       </c>
       <c r="P10" t="n">
-        <v>2.345974093671658</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, 5.471843060306547]</t>
+          <t>[1.3648160276856558, 4.283132326515814]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1376293711049021</v>
+        <v>0.000319912636151054</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1376293711049021</v>
+        <v>0.000319912636151054</v>
       </c>
       <c r="T10" t="n">
-        <v>13.81258343404819</v>
+        <v>16.6895718883139</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.273475236057546, 18.351691632038833]</t>
+          <t>[10.828042786278509, 22.55110099034929]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.008865744862476e-07</v>
+        <v>7.718251169297474e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.008865744862476e-07</v>
+        <v>7.718251169297474e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.03017017017021</v>
+        <v>12.26626626626629</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.891201201201207</v>
+        <v>7.092132132132149</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.1691391391392</v>
+        <v>17.44040040040043</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04302214786877556</v>
+        <v>0.09175353970859157</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04302214786877556</v>
+        <v>0.09175353970859157</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.570316367461999</v>
+        <v>7.315581602894373</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.10631475395956258, 17.034317980964435]</t>
+          <t>[-1.8302538670597066, 16.46141707284845]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04730783663183113</v>
+        <v>0.1141632856722092</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04730783663183113</v>
+        <v>0.1141632856722092</v>
       </c>
       <c r="P11" t="n">
-        <v>2.169868799776734</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 3.855448041342429]</t>
+          <t>[-0.8050527720910781, 5.471843060306546]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01279693113849345</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01279693113849345</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="T11" t="n">
-        <v>13.50191086485672</v>
+        <v>12.74947987941467</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.827509844445377, 18.17631188526807]</t>
+          <t>[8.108497830676239, 17.390461928153098]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.818351265229893e-07</v>
+        <v>1.531867609427806e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.818351265229893e-07</v>
+        <v>1.531867609427806e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.08324324324335</v>
+        <v>14.60932932932945</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.902342342342404</v>
+        <v>3.000960960960986</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.26414414414429</v>
+        <v>26.21769769769791</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.128850699561418</v>
+        <v>0.2122115658710068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.128850699561418</v>
+        <v>0.2122115658710068</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.008908744717748</v>
+        <v>5.793198773572424</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.5778837488365554, 11.595701238272051]</t>
+          <t>[-3.0181911102750405, 14.604588657419889]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1326169420755734</v>
+        <v>0.1921212652448803</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1326169420755734</v>
+        <v>0.1921212652448803</v>
       </c>
       <c r="P12" t="n">
-        <v>2.647868883205811</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.3962369112635784, 5.6919746776752005]</t>
+          <t>[-0.779894872963232, 5.497000959434392]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.08659733381053192</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08659733381053192</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="T12" t="n">
-        <v>9.660434960190202</v>
+        <v>13.15569736862808</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.176361223433419, 13.144508696946984]</t>
+          <t>[8.54698293428618, 17.764411802969978]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.286121479759927e-06</v>
+        <v>7.345352901477753e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.286121479759927e-06</v>
+        <v>7.345352901477753e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>13.33045045045055</v>
+        <v>14.5162762762764</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.167927927927945</v>
+        <v>2.907907907907934</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.49297297297315</v>
+        <v>26.12464464464486</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01740659452565607</v>
+        <v>0.434878824474113</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01740659452565607</v>
+        <v>0.434878824474113</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.046364209837034</v>
+        <v>4.023972671513245</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[1.2206420598428203, 10.872086359831247]</t>
+          <t>[-4.445764067919474, 12.493709410945964]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01521744712250794</v>
+        <v>0.3437302367587249</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01521744712250794</v>
+        <v>0.3437302367587249</v>
       </c>
       <c r="P13" t="n">
-        <v>3.138447916198812</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[2.0315003545735797, 4.245395477824045]</t>
+          <t>[-0.8050527720910781, 5.471843060306546]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.384736134292581e-07</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="S13" t="n">
-        <v>8.384736134292581e-07</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.699193592991678</v>
+        <v>11.90411650105863</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.754466528524503, 12.643920657458853]</t>
+          <t>[7.505721215847168, 16.302511786270088]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.563261863348544e-08</v>
+        <v>2.02185779940578e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.563261863348544e-08</v>
+        <v>2.02185779940578e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>11.53153153153161</v>
+        <v>14.60932932932945</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.472432432432485</v>
+        <v>3.000960960960986</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.59063063063074</v>
+        <v>26.21769769769791</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.138295388123766</v>
+        <v>0.5589431246419887</v>
       </c>
       <c r="I14" t="n">
-        <v>0.138295388123766</v>
+        <v>0.5589431246419887</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.953013686484247</v>
+        <v>3.325072200050883</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.1896255474683075, 16.0956529204368]</t>
+          <t>[-4.746192560374309, 11.396336960476075]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1325888014917891</v>
+        <v>0.4110668097689198</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1325888014917891</v>
+        <v>0.4110668097689198</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.905737349266235</v>
+        <v>-2.968632097085851</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.71710608647116, -1.0943686120613108]</t>
+          <t>[-6.063053689810933, 0.12578949563923114]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.002308999827691283</v>
+        <v>0.0596412074645265</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002308999827691283</v>
+        <v>0.0596412074645265</v>
       </c>
       <c r="T14" t="n">
-        <v>13.93222377344189</v>
+        <v>12.64451347578341</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.984964392728845, 18.879483154154943]</t>
+          <t>[8.221400559104929, 17.0676263924619]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.555736999455888e-07</v>
+        <v>7.13624308312788e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>9.555736999455888e-07</v>
+        <v>7.13624308312788e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>10.65513513513521</v>
+        <v>10.98026026026035</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.012972972973005</v>
+        <v>-0.4652652652652716</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.29729729729742</v>
+        <v>22.42578578578598</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.277465866839105</v>
+        <v>0.304422053232404</v>
       </c>
       <c r="I15" t="n">
-        <v>0.277465866839105</v>
+        <v>0.304422053232404</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.247893550101287</v>
+        <v>5.44728961100395</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.5574885048459777, 14.053275605048551]</t>
+          <t>[-3.8655839544211252, 14.760163176429025]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2362731161746789</v>
+        <v>0.2449533263495212</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2362731161746789</v>
+        <v>0.2449533263495212</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.805105752754851</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.7674483750587395, 0.2830263651882694]</t>
+          <t>[-5.905816820261894, 0.2956053147521924]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.07453979110122844</v>
+        <v>0.07509129177054996</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07453979110122844</v>
+        <v>0.07509129177054996</v>
       </c>
       <c r="T15" t="n">
-        <v>11.68798288056057</v>
+        <v>15.70255992713714</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.034655362762325, 16.34131039835881]</t>
+          <t>[10.682856986596153, 20.722262867678136]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.558473579472036e-06</v>
+        <v>1.116597319050783e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>7.558473579472036e-06</v>
+        <v>1.116597319050783e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>10.05549549549557</v>
+        <v>10.3754154154155</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.037837837837845</v>
+        <v>-1.09337337337338</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.14882882882898</v>
+        <v>21.84420420420439</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2198883752795621</v>
+        <v>0.2303834255625139</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2198883752795621</v>
+        <v>0.2303834255625139</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>7.277476022893282</v>
+        <v>5.384496077684686</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.7552227564215706, 18.310174802208135]</t>
+          <t>[-2.4755806964153138, 13.244572851784685]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1906918590712696</v>
+        <v>0.1744816010164338</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1906918590712696</v>
+        <v>0.1744816010164338</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.691895206679543</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.792606274186586, 0.40881586082750054]</t>
+          <t>[-6.17626423588624, -0.012578949563923025]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.08718784131148505</v>
+        <v>0.04911097052868785</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08718784131148505</v>
+        <v>0.04911097052868785</v>
       </c>
       <c r="T16" t="n">
-        <v>14.81638414900163</v>
+        <v>11.81553147164354</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[8.903119052452407, 20.72964924555085]</t>
+          <t>[7.352315662807347, 16.27874728047974]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7.876377505544596e-06</v>
+        <v>3.023552926251227e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>7.876377505544596e-06</v>
+        <v>3.023552926251227e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>9.870990990991062</v>
+        <v>11.44552552552562</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.499099099099109</v>
+        <v>0.04652652652652556</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.24108108108123</v>
+        <v>22.84452452452472</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2208420757270989</v>
+        <v>0.4667687795029131</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2208420757270989</v>
+        <v>0.4667687795029131</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.026749303353498</v>
+        <v>3.306613385229513</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.847541451780291, 14.901040058487286]</t>
+          <t>[-3.9425612216265815, 10.555787992085607]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1781585293405494</v>
+        <v>0.3631476121434714</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1781585293405494</v>
+        <v>0.3631476121434714</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.151000375430849</v>
+        <v>-2.629000458859927</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.213974594246122, 0.9119738433844242]</t>
+          <t>[-5.723422051585009, 0.4654211338651555]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1641203001136815</v>
+        <v>0.09393573662974708</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1641203001136815</v>
+        <v>0.09393573662974708</v>
       </c>
       <c r="T17" t="n">
-        <v>15.3909199598646</v>
+        <v>11.71404017942087</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[10.579836727033168, 20.202003192696033]</t>
+          <t>[7.9085553035775815, 15.519525055264165]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>6.847806766074882e-08</v>
+        <v>1.576224926136405e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>6.847806766074882e-08</v>
+        <v>1.576224926136405e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>7.887567567567622</v>
+        <v>9.724044044044126</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.344144144144167</v>
+        <v>-1.721481481481499</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.11927927927941</v>
+        <v>21.16956956956975</v>
       </c>
     </row>
   </sheetData>
